--- a/facts.xlsx
+++ b/facts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,40 +461,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>verification_status</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>verification_status</t>
+          <t>verification_reason</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>verification_reason</t>
+          <t>verification_time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>verification_time</t>
+          <t>chunk_index</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>chunk_index</t>
+          <t>extraction_model</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>extraction_model</t>
+          <t>extraction_time</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>extraction_time</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>metadata</t>
         </is>
@@ -503,12 +498,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-22T16:33:34.552933</t>
+          <t>2025-02-23T19:54:00.777844</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sustainable Data Centers Article</t>
+          <t>Cybersecurity Evolution</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -518,65 +513,68 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The Rise of Sustainable Data Centers: A Green Revolution in Computing
-The technology industry's push toward sustainability has transformed how data centers are designed and operated in the 21st century. As digital infrastructure continues to expand, companies are increasingly focusing on environmental responsibility while meeting the growing demands of modern computing workloads.
-Traditional data centers have long been known for their substantial environmental impact, particularly in terms of energy consumption and carbon emissions. However, recent years have witnessed a remarkable shift toward sustainable practices and innovative solutions that promise to reshape the industry's environmental footprint.
-One of the most significant developments in this space occurred in March 2023, when Microsoft successfully completed a three-month trial of an underwater data center off the coast of Scotland, demonstrating a remarkable 98% reliability rate in their underwater cooling system. This breakthrough project, known as Project Natick, showed that subsea data centers could operate with significantly reduced cooling costs and environmental impact compared to traditional land-based facilities.
-The drive toward sustainability has also led to innovative approaches in power sourcing and management. Companies are increasingly turning to renewable energy sources to power their data centers, with some achieving remarkable results. In September 2022, Amazon Web Services announced that their European data centers had reached an impressive milestone of 90% renewable energy usage across all their facilities in the region, marking a significant step toward their goal of 100% renewable energy by 2025.
-The industry's commitment to environmental responsibility extends beyond just power consumption. Modern data centers are incorporating advanced materials and design principles to minimize their environmental impact. From the use of recycled materials in construction to the implementation of smart building management systems, every aspect of data center design is being reconsidered through the lens of sustainability.
-Water conservation has become another crucial focus area for data center operators. Traditional cooling systems can consume millions of gallons of water annually, leading to increased pressure on local water resources. In response, many facilities are adopting innovative cooling technologies that significantly reduce water usage while maintaining optimal operating temperatures.
-The economic benefits of sustainable data centers are becoming increasingly apparent. While the initial investment in green technologies may be higher, the long-term operational cost savings and improved public perception make a compelling business case for sustainability. Companies are finding that environmental responsibility and profitability can go hand in hand.</t>
+          <t>The Evolution of Cybersecurity: Adapting to an Ever-Changing Threat Landscape
+In the rapidly evolving digital landscape, cybersecurity has become an increasingly complex and critical discipline. Organizations worldwide face the constant challenge of protecting their digital assets against an ever-expanding array of threats, while simultaneously maintaining operational efficiency and user accessibility. This delicate balance between security and functionality has led to fundamental shifts in how we approach digital protection.
+The traditional perimeter-based security model has given way to more sophisticated, layered approaches that acknowledge the dissolving boundaries of modern networks. As organizations embrace cloud computing, remote work, and interconnected systems, the concept of a clearly defined network edge has become increasingly obsolete. This transformation has necessitated a complete reimagining of security architectures and strategies.
+Zero Trust Architecture has emerged as a response to these changing dynamics, fundamentally altering how organizations approach security. This model assumes no implicit trust, regardless of whether access requests originate from inside or outside traditional network boundaries. Every access request must be validated, every user authenticated, and every device verified before trust is granted. This approach represents a significant departure from traditional security models that assumed internal network traffic could be trusted.
+The human element remains both the greatest vulnerability and the strongest potential defense in cybersecurity. Social engineering attacks continue to evolve in sophistication, targeting not just technology but human psychology. Organizations must balance technical security measures with comprehensive user education and awareness programs. The most robust technical defenses can be circumvented by a single moment of human error, making the human factor a critical consideration in security strategy.
+Artificial Intelligence and Machine Learning have introduced new dimensions to both attack and defense mechanisms in cybersecurity. These technologies enable more sophisticated threat detection and response capabilities, allowing security systems to identify patterns and anomalies that might escape human notice. However, these same technologies also empower attackers, enabling more sophisticated and automated attack vectors that can adapt and evolve in real-time.
+The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Microsoft successfully completed a three-month trial of an underwater data center off the coast of Scotland in March 2023</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>Zero Trust Architecture has emerged as a response to changing dynamics in cybersecurity</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>rejected</t>
+          <t>The submitted fact is a valid fact.
+1. The fact is a direct statement from the original text.
+2. It names a specific cybersecurity concept, Zero Trust Architecture.
+3. The concept is described as a response to changing dynamics in cybersecurity.
+4. The fact can be directly verified in the original text.
+5. It does not combine information from different parts of the text.
+6. The context and details about Zero Trust Architecture are preserved.
+7. No additional information or inference is added beyond what is explicitly stated.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>The submitted fact is not an exact word-for-word quote from the original text. The original text mentions 'demonstrating a remarkable 98% reliability rate in their underwater cooling system' which is not present in the submitted fact. However, the core information about Microsoft's underwater data center trial is present in the original text.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-02-22T16:33:35.757562</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>llama-3.3-70b-versatile</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>1.316876</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>{"chunk_metadata": {"char_length": 2883, "timestamp": "2025-02-22T16:33:33.211918"}, "llm_response": "Here are the extracted facts with confidence scores:\n\n&lt;fact&gt;Microsoft successfully completed a three-month trial of an underwater data center off the coast of Scotland in March 2023&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n&lt;fact&gt;The underwater cooling system demonstrated a remarkable 98% reliability rate&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n&lt;fact&gt;Amazon Web Services announced that their European data centers had reached 90% renewable energy usage across all their facilities in the region in September 2022&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n&lt;fact&gt;Amazon Web Services aims to achieve 100% renewable energy by 2025&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n\nThese facts are extracted verbatim from the text, contain specific dates, named entities, and precise measurements, making them verifiable and factual. The confidence score of 1.0 reflects the explicit and specific nature of these facts.", "extraction_time": 1.316876, "extraction_model": "llama-3.3-70b-versatile"}</t>
+      <c r="K2" t="n">
+        <v>1.357784</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 2885, "timestamp": "2025-02-23T19:53:59.387742"}, "llm_response": "&lt;fact&gt;Zero Trust Architecture has emerged as a response to changing dynamics in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Zero Trust Architecture assumes no implicit trust and requires validation of every access request, user authentication, and device verification&lt;/fact&gt;\n&lt;fact&gt;Social engineering attacks continue to evolve in sophistication, targeting human psychology in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Artificial Intelligence and Machine Learning enable more sophisticated threat detection and response capabilities in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Regulatory frameworks and requirements in cybersecurity continue to evolve across different jurisdictions and industries&lt;/fact&gt;", "extraction_time": 1.357784, "extraction_model": "gpt-3.5-turbo", "fact_number": 1}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-02-22T16:33:34.593580</t>
+          <t>2025-02-23T19:54:00.777859</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sustainable Data Centers Article</t>
+          <t>Cybersecurity Evolution</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -586,65 +584,61 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The Rise of Sustainable Data Centers: A Green Revolution in Computing
-The technology industry's push toward sustainability has transformed how data centers are designed and operated in the 21st century. As digital infrastructure continues to expand, companies are increasingly focusing on environmental responsibility while meeting the growing demands of modern computing workloads.
-Traditional data centers have long been known for their substantial environmental impact, particularly in terms of energy consumption and carbon emissions. However, recent years have witnessed a remarkable shift toward sustainable practices and innovative solutions that promise to reshape the industry's environmental footprint.
-One of the most significant developments in this space occurred in March 2023, when Microsoft successfully completed a three-month trial of an underwater data center off the coast of Scotland, demonstrating a remarkable 98% reliability rate in their underwater cooling system. This breakthrough project, known as Project Natick, showed that subsea data centers could operate with significantly reduced cooling costs and environmental impact compared to traditional land-based facilities.
-The drive toward sustainability has also led to innovative approaches in power sourcing and management. Companies are increasingly turning to renewable energy sources to power their data centers, with some achieving remarkable results. In September 2022, Amazon Web Services announced that their European data centers had reached an impressive milestone of 90% renewable energy usage across all their facilities in the region, marking a significant step toward their goal of 100% renewable energy by 2025.
-The industry's commitment to environmental responsibility extends beyond just power consumption. Modern data centers are incorporating advanced materials and design principles to minimize their environmental impact. From the use of recycled materials in construction to the implementation of smart building management systems, every aspect of data center design is being reconsidered through the lens of sustainability.
-Water conservation has become another crucial focus area for data center operators. Traditional cooling systems can consume millions of gallons of water annually, leading to increased pressure on local water resources. In response, many facilities are adopting innovative cooling technologies that significantly reduce water usage while maintaining optimal operating temperatures.
-The economic benefits of sustainable data centers are becoming increasingly apparent. While the initial investment in green technologies may be higher, the long-term operational cost savings and improved public perception make a compelling business case for sustainability. Companies are finding that environmental responsibility and profitability can go hand in hand.</t>
+          <t>The Evolution of Cybersecurity: Adapting to an Ever-Changing Threat Landscape
+In the rapidly evolving digital landscape, cybersecurity has become an increasingly complex and critical discipline. Organizations worldwide face the constant challenge of protecting their digital assets against an ever-expanding array of threats, while simultaneously maintaining operational efficiency and user accessibility. This delicate balance between security and functionality has led to fundamental shifts in how we approach digital protection.
+The traditional perimeter-based security model has given way to more sophisticated, layered approaches that acknowledge the dissolving boundaries of modern networks. As organizations embrace cloud computing, remote work, and interconnected systems, the concept of a clearly defined network edge has become increasingly obsolete. This transformation has necessitated a complete reimagining of security architectures and strategies.
+Zero Trust Architecture has emerged as a response to these changing dynamics, fundamentally altering how organizations approach security. This model assumes no implicit trust, regardless of whether access requests originate from inside or outside traditional network boundaries. Every access request must be validated, every user authenticated, and every device verified before trust is granted. This approach represents a significant departure from traditional security models that assumed internal network traffic could be trusted.
+The human element remains both the greatest vulnerability and the strongest potential defense in cybersecurity. Social engineering attacks continue to evolve in sophistication, targeting not just technology but human psychology. Organizations must balance technical security measures with comprehensive user education and awareness programs. The most robust technical defenses can be circumvented by a single moment of human error, making the human factor a critical consideration in security strategy.
+Artificial Intelligence and Machine Learning have introduced new dimensions to both attack and defense mechanisms in cybersecurity. These technologies enable more sophisticated threat detection and response capabilities, allowing security systems to identify patterns and anomalies that might escape human notice. However, these same technologies also empower attackers, enabling more sophisticated and automated attack vectors that can adapt and evolve in real-time.
+The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The underwater cooling system demonstrated a remarkable 98% reliability rate</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>Zero Trust Architecture assumes no implicit trust and requires validation of every access request, user authentication, and device verification</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>rejected</t>
+          <t>The submitted fact accurately reflects the information provided in the original text. It specifically mentions Zero Trust Architecture, stating that it assumes no implicit trust, requires validation of every access request, user authentication, and device verification. This fact is a direct and verifiable statement from the text, preserving all the key details and context without adding any new information or making any subjective interpretations.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>The submitted fact is not an exact word-for-word quote from the original context. The original text states 'demonstrating a remarkable 98% reliability rate in their underwater cooling system' whereas the submitted fact is 'The underwater cooling system demonstrated a remarkable 98% reliability rate', which reorders and modifies the original quote.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2025-02-22T16:33:36.592316</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>llama-3.3-70b-versatile</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1.316876</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>{"chunk_metadata": {"char_length": 2883, "timestamp": "2025-02-22T16:33:33.211918"}, "llm_response": "Here are the extracted facts with confidence scores:\n\n&lt;fact&gt;Microsoft successfully completed a three-month trial of an underwater data center off the coast of Scotland in March 2023&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n&lt;fact&gt;The underwater cooling system demonstrated a remarkable 98% reliability rate&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n&lt;fact&gt;Amazon Web Services announced that their European data centers had reached 90% renewable energy usage across all their facilities in the region in September 2022&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n&lt;fact&gt;Amazon Web Services aims to achieve 100% renewable energy by 2025&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n\nThese facts are extracted verbatim from the text, contain specific dates, named entities, and precise measurements, making them verifiable and factual. The confidence score of 1.0 reflects the explicit and specific nature of these facts.", "extraction_time": 1.316876, "extraction_model": "llama-3.3-70b-versatile"}</t>
+      <c r="K3" t="n">
+        <v>1.357784</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 2885, "timestamp": "2025-02-23T19:53:59.387742"}, "llm_response": "&lt;fact&gt;Zero Trust Architecture has emerged as a response to changing dynamics in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Zero Trust Architecture assumes no implicit trust and requires validation of every access request, user authentication, and device verification&lt;/fact&gt;\n&lt;fact&gt;Social engineering attacks continue to evolve in sophistication, targeting human psychology in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Artificial Intelligence and Machine Learning enable more sophisticated threat detection and response capabilities in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Regulatory frameworks and requirements in cybersecurity continue to evolve across different jurisdictions and industries&lt;/fact&gt;", "extraction_time": 1.357784, "extraction_model": "gpt-3.5-turbo", "fact_number": 2}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-02-22T16:33:34.603422</t>
+          <t>2025-02-23T19:54:00.777868</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sustainable Data Centers Article</t>
+          <t>Cybersecurity Evolution</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -654,65 +648,68 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The Rise of Sustainable Data Centers: A Green Revolution in Computing
-The technology industry's push toward sustainability has transformed how data centers are designed and operated in the 21st century. As digital infrastructure continues to expand, companies are increasingly focusing on environmental responsibility while meeting the growing demands of modern computing workloads.
-Traditional data centers have long been known for their substantial environmental impact, particularly in terms of energy consumption and carbon emissions. However, recent years have witnessed a remarkable shift toward sustainable practices and innovative solutions that promise to reshape the industry's environmental footprint.
-One of the most significant developments in this space occurred in March 2023, when Microsoft successfully completed a three-month trial of an underwater data center off the coast of Scotland, demonstrating a remarkable 98% reliability rate in their underwater cooling system. This breakthrough project, known as Project Natick, showed that subsea data centers could operate with significantly reduced cooling costs and environmental impact compared to traditional land-based facilities.
-The drive toward sustainability has also led to innovative approaches in power sourcing and management. Companies are increasingly turning to renewable energy sources to power their data centers, with some achieving remarkable results. In September 2022, Amazon Web Services announced that their European data centers had reached an impressive milestone of 90% renewable energy usage across all their facilities in the region, marking a significant step toward their goal of 100% renewable energy by 2025.
-The industry's commitment to environmental responsibility extends beyond just power consumption. Modern data centers are incorporating advanced materials and design principles to minimize their environmental impact. From the use of recycled materials in construction to the implementation of smart building management systems, every aspect of data center design is being reconsidered through the lens of sustainability.
-Water conservation has become another crucial focus area for data center operators. Traditional cooling systems can consume millions of gallons of water annually, leading to increased pressure on local water resources. In response, many facilities are adopting innovative cooling technologies that significantly reduce water usage while maintaining optimal operating temperatures.
-The economic benefits of sustainable data centers are becoming increasingly apparent. While the initial investment in green technologies may be higher, the long-term operational cost savings and improved public perception make a compelling business case for sustainability. Companies are finding that environmental responsibility and profitability can go hand in hand.</t>
+          <t>The Evolution of Cybersecurity: Adapting to an Ever-Changing Threat Landscape
+In the rapidly evolving digital landscape, cybersecurity has become an increasingly complex and critical discipline. Organizations worldwide face the constant challenge of protecting their digital assets against an ever-expanding array of threats, while simultaneously maintaining operational efficiency and user accessibility. This delicate balance between security and functionality has led to fundamental shifts in how we approach digital protection.
+The traditional perimeter-based security model has given way to more sophisticated, layered approaches that acknowledge the dissolving boundaries of modern networks. As organizations embrace cloud computing, remote work, and interconnected systems, the concept of a clearly defined network edge has become increasingly obsolete. This transformation has necessitated a complete reimagining of security architectures and strategies.
+Zero Trust Architecture has emerged as a response to these changing dynamics, fundamentally altering how organizations approach security. This model assumes no implicit trust, regardless of whether access requests originate from inside or outside traditional network boundaries. Every access request must be validated, every user authenticated, and every device verified before trust is granted. This approach represents a significant departure from traditional security models that assumed internal network traffic could be trusted.
+The human element remains both the greatest vulnerability and the strongest potential defense in cybersecurity. Social engineering attacks continue to evolve in sophistication, targeting not just technology but human psychology. Organizations must balance technical security measures with comprehensive user education and awareness programs. The most robust technical defenses can be circumvented by a single moment of human error, making the human factor a critical consideration in security strategy.
+Artificial Intelligence and Machine Learning have introduced new dimensions to both attack and defense mechanisms in cybersecurity. These technologies enable more sophisticated threat detection and response capabilities, allowing security systems to identify patterns and anomalies that might escape human notice. However, these same technologies also empower attackers, enabling more sophisticated and automated attack vectors that can adapt and evolve in real-time.
+The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Amazon Web Services announced that their European data centers had reached 90% renewable energy usage across all their facilities in the region in September 2022</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>Social engineering attacks continue to evolve in sophistication, targeting human psychology in cybersecurity</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>The submitted fact is a valid paraphrased fact:
+1. The fact maintains the specific information about social engineering attacks evolving in sophistication.
+2. It includes the detail about targeting human psychology in cybersecurity.
+3. The paraphrased fact preserves the context and specific details from the original text.
+4. No additional information is introduced beyond what is stated in the original text.
+5. The paraphrased fact does not combine information from different parts of the text.
+6. It does not make any subjective assessments or inferences.
+7. The paraphrased fact contains specific information that can be independently verified.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>The submitted fact is an exact word-for-word match with the original text. It contains specific dates, metrics, and location information, making it a factual claim suitable for storage in a knowledge base.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-02-22T16:33:37.577843</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>llama-3.3-70b-versatile</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1.316876</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>{"chunk_metadata": {"char_length": 2883, "timestamp": "2025-02-22T16:33:33.211918"}, "llm_response": "Here are the extracted facts with confidence scores:\n\n&lt;fact&gt;Microsoft successfully completed a three-month trial of an underwater data center off the coast of Scotland in March 2023&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n&lt;fact&gt;The underwater cooling system demonstrated a remarkable 98% reliability rate&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n&lt;fact&gt;Amazon Web Services announced that their European data centers had reached 90% renewable energy usage across all their facilities in the region in September 2022&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n&lt;fact&gt;Amazon Web Services aims to achieve 100% renewable energy by 2025&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n\nThese facts are extracted verbatim from the text, contain specific dates, named entities, and precise measurements, making them verifiable and factual. The confidence score of 1.0 reflects the explicit and specific nature of these facts.", "extraction_time": 1.316876, "extraction_model": "llama-3.3-70b-versatile"}</t>
+      <c r="K4" t="n">
+        <v>1.357784</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 2885, "timestamp": "2025-02-23T19:53:59.387742"}, "llm_response": "&lt;fact&gt;Zero Trust Architecture has emerged as a response to changing dynamics in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Zero Trust Architecture assumes no implicit trust and requires validation of every access request, user authentication, and device verification&lt;/fact&gt;\n&lt;fact&gt;Social engineering attacks continue to evolve in sophistication, targeting human psychology in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Artificial Intelligence and Machine Learning enable more sophisticated threat detection and response capabilities in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Regulatory frameworks and requirements in cybersecurity continue to evolve across different jurisdictions and industries&lt;/fact&gt;", "extraction_time": 1.357784, "extraction_model": "gpt-3.5-turbo", "fact_number": 3}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-02-22T16:33:34.613061</t>
+          <t>2025-02-23T19:54:00.777876</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sustainable Data Centers Article</t>
+          <t>Cybersecurity Evolution</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -722,305 +719,113 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The Rise of Sustainable Data Centers: A Green Revolution in Computing
-The technology industry's push toward sustainability has transformed how data centers are designed and operated in the 21st century. As digital infrastructure continues to expand, companies are increasingly focusing on environmental responsibility while meeting the growing demands of modern computing workloads.
-Traditional data centers have long been known for their substantial environmental impact, particularly in terms of energy consumption and carbon emissions. However, recent years have witnessed a remarkable shift toward sustainable practices and innovative solutions that promise to reshape the industry's environmental footprint.
-One of the most significant developments in this space occurred in March 2023, when Microsoft successfully completed a three-month trial of an underwater data center off the coast of Scotland, demonstrating a remarkable 98% reliability rate in their underwater cooling system. This breakthrough project, known as Project Natick, showed that subsea data centers could operate with significantly reduced cooling costs and environmental impact compared to traditional land-based facilities.
-The drive toward sustainability has also led to innovative approaches in power sourcing and management. Companies are increasingly turning to renewable energy sources to power their data centers, with some achieving remarkable results. In September 2022, Amazon Web Services announced that their European data centers had reached an impressive milestone of 90% renewable energy usage across all their facilities in the region, marking a significant step toward their goal of 100% renewable energy by 2025.
-The industry's commitment to environmental responsibility extends beyond just power consumption. Modern data centers are incorporating advanced materials and design principles to minimize their environmental impact. From the use of recycled materials in construction to the implementation of smart building management systems, every aspect of data center design is being reconsidered through the lens of sustainability.
-Water conservation has become another crucial focus area for data center operators. Traditional cooling systems can consume millions of gallons of water annually, leading to increased pressure on local water resources. In response, many facilities are adopting innovative cooling technologies that significantly reduce water usage while maintaining optimal operating temperatures.
-The economic benefits of sustainable data centers are becoming increasingly apparent. While the initial investment in green technologies may be higher, the long-term operational cost savings and improved public perception make a compelling business case for sustainability. Companies are finding that environmental responsibility and profitability can go hand in hand.</t>
+          <t>The Evolution of Cybersecurity: Adapting to an Ever-Changing Threat Landscape
+In the rapidly evolving digital landscape, cybersecurity has become an increasingly complex and critical discipline. Organizations worldwide face the constant challenge of protecting their digital assets against an ever-expanding array of threats, while simultaneously maintaining operational efficiency and user accessibility. This delicate balance between security and functionality has led to fundamental shifts in how we approach digital protection.
+The traditional perimeter-based security model has given way to more sophisticated, layered approaches that acknowledge the dissolving boundaries of modern networks. As organizations embrace cloud computing, remote work, and interconnected systems, the concept of a clearly defined network edge has become increasingly obsolete. This transformation has necessitated a complete reimagining of security architectures and strategies.
+Zero Trust Architecture has emerged as a response to these changing dynamics, fundamentally altering how organizations approach security. This model assumes no implicit trust, regardless of whether access requests originate from inside or outside traditional network boundaries. Every access request must be validated, every user authenticated, and every device verified before trust is granted. This approach represents a significant departure from traditional security models that assumed internal network traffic could be trusted.
+The human element remains both the greatest vulnerability and the strongest potential defense in cybersecurity. Social engineering attacks continue to evolve in sophistication, targeting not just technology but human psychology. Organizations must balance technical security measures with comprehensive user education and awareness programs. The most robust technical defenses can be circumvented by a single moment of human error, making the human factor a critical consideration in security strategy.
+Artificial Intelligence and Machine Learning have introduced new dimensions to both attack and defense mechanisms in cybersecurity. These technologies enable more sophisticated threat detection and response capabilities, allowing security systems to identify patterns and anomalies that might escape human notice. However, these same technologies also empower attackers, enabling more sophisticated and automated attack vectors that can adapt and evolve in real-time.
+The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Amazon Web Services aims to achieve 100% renewable energy by 2025</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>Artificial Intelligence and Machine Learning enable more sophisticated threat detection and response capabilities in cybersecurity</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>rejected</t>
+          <t>The submitted fact is a valid fact:
+1. The fact is a direct paraphrase of the original text.
+2. It maintains the specific technologies mentioned (Artificial Intelligence and Machine Learning).
+3. The statement makes a concrete claim about the capabilities of these technologies in cybersecurity.
+4. All specific details and context from the original text are preserved.
+5. No additional information is added or inferred.
+6. The paraphrase does not combine information from different parts of the text.
+7. The fact contains specific, verifiable information about the role of AI and ML in cybersecurity.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>The submitted fact is not an exact word-for-word match with the original text. The original text states 'Amazon Web Services... had reached an impressive milestone of 90% renewable energy usage... marking a significant step toward their goal of 100% renewable energy by 2025', which implies the goal but does not directly state it as the submitted fact does.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-02-22T16:33:38.443258</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>llama-3.3-70b-versatile</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1.316876</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>{"chunk_metadata": {"char_length": 2883, "timestamp": "2025-02-22T16:33:33.211918"}, "llm_response": "Here are the extracted facts with confidence scores:\n\n&lt;fact&gt;Microsoft successfully completed a three-month trial of an underwater data center off the coast of Scotland in March 2023&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n&lt;fact&gt;The underwater cooling system demonstrated a remarkable 98% reliability rate&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n&lt;fact&gt;Amazon Web Services announced that their European data centers had reached 90% renewable energy usage across all their facilities in the region in September 2022&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n&lt;fact&gt;Amazon Web Services aims to achieve 100% renewable energy by 2025&lt;/fact&gt; &lt;confidence&gt;1.0&lt;/confidence&gt;\n\nThese facts are extracted verbatim from the text, contain specific dates, named entities, and precise measurements, making them verifiable and factual. The confidence score of 1.0 reflects the explicit and specific nature of these facts.", "extraction_time": 1.316876, "extraction_model": "llama-3.3-70b-versatile"}</t>
+      <c r="K5" t="n">
+        <v>1.357784</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 2885, "timestamp": "2025-02-23T19:53:59.387742"}, "llm_response": "&lt;fact&gt;Zero Trust Architecture has emerged as a response to changing dynamics in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Zero Trust Architecture assumes no implicit trust and requires validation of every access request, user authentication, and device verification&lt;/fact&gt;\n&lt;fact&gt;Social engineering attacks continue to evolve in sophistication, targeting human psychology in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Artificial Intelligence and Machine Learning enable more sophisticated threat detection and response capabilities in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Regulatory frameworks and requirements in cybersecurity continue to evolve across different jurisdictions and industries&lt;/fact&gt;", "extraction_time": 1.357784, "extraction_model": "gpt-3.5-turbo", "fact_number": 4}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-02-22T16:33:41.304002</t>
+          <t>2025-02-23T20:04:08.699207</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sustainable Data Centers Article</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>synthetic_data.py</t>
-        </is>
-      </c>
+          <t>SYNTHETIC_ARTICLE_6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Looking ahead, the industry continues to explore new frontiers in sustainable data center technology. Research into advanced cooling methods, more efficient power distribution systems, and innovative building materials suggests that the next generation of data centers will be even more environmentally friendly while delivering enhanced performance.
-The impact of these developments extends beyond the technology sector. As data centers become more sustainable, they set new standards for industrial facilities across all sectors. The lessons learned and technologies developed in the pursuit of green data centers are helping to drive broader sustainability initiatives across the global economy.
-As we move forward, the continued evolution of sustainable data center practices will play a crucial role in addressing the environmental challenges of the digital age. The innovations and achievements we see today are just the beginning of a longer journey toward truly sustainable digital infrastructure.</t>
+          <t>The Future of Semiconductor Manufacturing: Innovation at the Atomic Scale
+The semiconductor industry stands at the forefront of technological innovation, pushing the boundaries of what's possible in electronic device manufacturing. The relentless pursuit of Moore's Law has driven unprecedented advances in manufacturing processes, enabling the creation of increasingly powerful and efficient electronic devices. This journey of innovation continues to reshape the landscape of modern technology.
+The fundamental challenges of semiconductor manufacturing have grown exponentially as device dimensions approach atomic scales. The physics of semiconductor fabrication at these scales presents unique challenges that require revolutionary approaches to manufacturing. Engineers and scientists must contend with quantum effects and atomic-level precision in ways that were unimaginable just a few decades ago.
+In a groundbreaking achievement announced in March 2024, TSMC successfully demonstrated the world's first 1-nanometer process node, achieving a transistor density of 400 million transistors per square millimeter while maintaining a power efficiency of 0.2 watts per million transistors. This development marks a significant milestone in the industry's pursuit of continued scaling in semiconductor manufacturing.
+The evolution of lithography technology has been crucial to enabling continued advancement in semiconductor manufacturing. The industry's adoption of extreme ultraviolet (EUV) lithography represented a fundamental shift in how circuits are patterned onto silicon wafers. This technology continues to evolve, with researchers exploring new techniques for achieving even finer feature sizes and better pattern fidelity.
+Materials science plays an increasingly critical role in semiconductor manufacturing innovation. The introduction of new materials and atomic-layer deposition techniques has enabled continued improvements in device performance and efficiency. Researchers continue to explore novel materials and compositions that could enable the next generation of semiconductor devices.
+The economic implications of advanced semiconductor manufacturing are profound. The cost of building and equipping a leading-edge semiconductor fabrication facility has grown exponentially, leading to new models of collaboration and investment in the industry. This economic reality has reshaped the competitive landscape and driven new approaches to funding and operating semiconductor manufacturing facilities.
+Quality control and yield management have become increasingly sophisticated as manufacturing processes become more complex. Advanced inspection and metrology systems, powered by artificial intelligence and machine learning, enable the detection and correction of defects at scales that were previously impossible to monitor. These capabilities are crucial for maintaining economically viable production yields at advanced technology nodes.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The industry continues to explore new frontiers in sustainable data center technology.</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0.4</v>
+          <t>TSMC successfully demonstrated the world's first 1-nanometer process node, achieving a transistor density of 400 million transistors per square millimeter with a power efficiency of 0.2 watts per million transistors</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>rejected</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>The submitted fact is not an exact word-for-word quote from the original context. It is missing the introductory phrase 'Looking ahead,' which is present in the original text.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2025-02-22T16:33:48.484373</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr">
+          <t>The submitted fact accurately reflects the specific achievement announced in the original text by TSMC regarding the demonstration of the world's first 1-nanometer process node. It includes two specific metrics: transistor density of 400 million transistors per square millimeter and power efficiency of 0.2 watts per million transistors. The fact maintains the complete technical context of the original statement, including the measurements and the entity (TSMC). No additional information is added, and the fact directly matches the verifiable data points provided in the text.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>llama-3.3-70b-versatile</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1.633129</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>{"chunk_metadata": {"char_length": 1007, "timestamp": "2025-02-22T16:33:39.651696"}, "llm_response": "There are no specific, verifiable facts in the given text. The text consists of general statements, speculation, and opinions about the future of sustainable data center technology and its potential impact on the environment and the economy.\n\nHowever, I can extract some statements that could be considered as facts with low confidence scores:\n\n&lt;fact&gt;The industry continues to explore new frontiers in sustainable data center technology.&lt;/fact&gt; &lt;confidence&gt;0.4&lt;/confidence&gt;\nThis statement is a general claim and lacks specific metrics or verifiable evidence.\n\n&lt;fact&gt;Research into advanced cooling methods, more efficient power distribution systems, and innovative building materials suggests that the next generation of data centers will be even more environmentally friendly while delivering enhanced performance.&lt;/fact&gt; &lt;confidence&gt;0.4&lt;/confidence&gt;\nThis statement is speculative and contains uncertain terms such as \"suggests\" and \"will be.\"\n\n&lt;fact&gt;The lessons learned and technologies developed in the pursuit of green data centers are helping to drive broader sustainability initiatives across the global economy.&lt;/fact&gt; &lt;confidence&gt;0.5&lt;/confidence&gt;\nThis statement is a general claim and lacks specific metrics or verifiable evidence, but it implies a potential impact of sustainable data center practices on the global economy.\n\n&lt;fact&gt;The continued evolution of sustainable data center practices will play a crucial role in addressing the environmental challenges of the digital age.&lt;/fact&gt; &lt;confidence&gt;0.4&lt;/confidence&gt;\nThis statement is a general claim and lacks specific metrics or verifiable evidence, and it contains uncertain terms such as \"will play a crucial role.\"", "extraction_time": 1.633129, "extraction_model": "llama-3.3-70b-versatile"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-02-22T16:33:41.322792</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sustainable Data Centers Article</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>synthetic_data.py</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Looking ahead, the industry continues to explore new frontiers in sustainable data center technology. Research into advanced cooling methods, more efficient power distribution systems, and innovative building materials suggests that the next generation of data centers will be even more environmentally friendly while delivering enhanced performance.
-The impact of these developments extends beyond the technology sector. As data centers become more sustainable, they set new standards for industrial facilities across all sectors. The lessons learned and technologies developed in the pursuit of green data centers are helping to drive broader sustainability initiatives across the global economy.
-As we move forward, the continued evolution of sustainable data center practices will play a crucial role in addressing the environmental challenges of the digital age. The innovations and achievements we see today are just the beginning of a longer journey toward truly sustainable digital infrastructure.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Research into advanced cooling methods, more efficient power distribution systems, and innovative building materials suggests that the next generation of data centers will be even more environmentally friendly while delivering enhanced performance.</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>The submitted fact is an exact word-for-word match with the original text. It contains specific information about the research areas and their potential impact on the environmental friendliness and performance of the next generation of data centers.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2025-02-22T16:33:55.598673</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>llama-3.3-70b-versatile</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1.633129</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>{"chunk_metadata": {"char_length": 1007, "timestamp": "2025-02-22T16:33:39.651696"}, "llm_response": "There are no specific, verifiable facts in the given text. The text consists of general statements, speculation, and opinions about the future of sustainable data center technology and its potential impact on the environment and the economy.\n\nHowever, I can extract some statements that could be considered as facts with low confidence scores:\n\n&lt;fact&gt;The industry continues to explore new frontiers in sustainable data center technology.&lt;/fact&gt; &lt;confidence&gt;0.4&lt;/confidence&gt;\nThis statement is a general claim and lacks specific metrics or verifiable evidence.\n\n&lt;fact&gt;Research into advanced cooling methods, more efficient power distribution systems, and innovative building materials suggests that the next generation of data centers will be even more environmentally friendly while delivering enhanced performance.&lt;/fact&gt; &lt;confidence&gt;0.4&lt;/confidence&gt;\nThis statement is speculative and contains uncertain terms such as \"suggests\" and \"will be.\"\n\n&lt;fact&gt;The lessons learned and technologies developed in the pursuit of green data centers are helping to drive broader sustainability initiatives across the global economy.&lt;/fact&gt; &lt;confidence&gt;0.5&lt;/confidence&gt;\nThis statement is a general claim and lacks specific metrics or verifiable evidence, but it implies a potential impact of sustainable data center practices on the global economy.\n\n&lt;fact&gt;The continued evolution of sustainable data center practices will play a crucial role in addressing the environmental challenges of the digital age.&lt;/fact&gt; &lt;confidence&gt;0.4&lt;/confidence&gt;\nThis statement is a general claim and lacks specific metrics or verifiable evidence, and it contains uncertain terms such as \"will play a crucial role.\"", "extraction_time": 1.633129, "extraction_model": "llama-3.3-70b-versatile"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-02-22T16:33:41.357383</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sustainable Data Centers Article</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>synthetic_data.py</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Looking ahead, the industry continues to explore new frontiers in sustainable data center technology. Research into advanced cooling methods, more efficient power distribution systems, and innovative building materials suggests that the next generation of data centers will be even more environmentally friendly while delivering enhanced performance.
-The impact of these developments extends beyond the technology sector. As data centers become more sustainable, they set new standards for industrial facilities across all sectors. The lessons learned and technologies developed in the pursuit of green data centers are helping to drive broader sustainability initiatives across the global economy.
-As we move forward, the continued evolution of sustainable data center practices will play a crucial role in addressing the environmental challenges of the digital age. The innovations and achievements we see today are just the beginning of a longer journey toward truly sustainable digital infrastructure.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>The lessons learned and technologies developed in the pursuit of green data centers are helping to drive broader sustainability initiatives across the global economy.</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>The submitted fact is an exact word-for-word match with the original text. It contains specific information about the impact of sustainable data center technologies on the global economy, maintaining its original meaning within the provided context.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2025-02-22T16:34:02.734438</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>llama-3.3-70b-versatile</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1.633129</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>{"chunk_metadata": {"char_length": 1007, "timestamp": "2025-02-22T16:33:39.651696"}, "llm_response": "There are no specific, verifiable facts in the given text. The text consists of general statements, speculation, and opinions about the future of sustainable data center technology and its potential impact on the environment and the economy.\n\nHowever, I can extract some statements that could be considered as facts with low confidence scores:\n\n&lt;fact&gt;The industry continues to explore new frontiers in sustainable data center technology.&lt;/fact&gt; &lt;confidence&gt;0.4&lt;/confidence&gt;\nThis statement is a general claim and lacks specific metrics or verifiable evidence.\n\n&lt;fact&gt;Research into advanced cooling methods, more efficient power distribution systems, and innovative building materials suggests that the next generation of data centers will be even more environmentally friendly while delivering enhanced performance.&lt;/fact&gt; &lt;confidence&gt;0.4&lt;/confidence&gt;\nThis statement is speculative and contains uncertain terms such as \"suggests\" and \"will be.\"\n\n&lt;fact&gt;The lessons learned and technologies developed in the pursuit of green data centers are helping to drive broader sustainability initiatives across the global economy.&lt;/fact&gt; &lt;confidence&gt;0.5&lt;/confidence&gt;\nThis statement is a general claim and lacks specific metrics or verifiable evidence, but it implies a potential impact of sustainable data center practices on the global economy.\n\n&lt;fact&gt;The continued evolution of sustainable data center practices will play a crucial role in addressing the environmental challenges of the digital age.&lt;/fact&gt; &lt;confidence&gt;0.4&lt;/confidence&gt;\nThis statement is a general claim and lacks specific metrics or verifiable evidence, and it contains uncertain terms such as \"will play a crucial role.\"", "extraction_time": 1.633129, "extraction_model": "llama-3.3-70b-versatile"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-02-22T16:33:41.366771</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sustainable Data Centers Article</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>synthetic_data.py</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Looking ahead, the industry continues to explore new frontiers in sustainable data center technology. Research into advanced cooling methods, more efficient power distribution systems, and innovative building materials suggests that the next generation of data centers will be even more environmentally friendly while delivering enhanced performance.
-The impact of these developments extends beyond the technology sector. As data centers become more sustainable, they set new standards for industrial facilities across all sectors. The lessons learned and technologies developed in the pursuit of green data centers are helping to drive broader sustainability initiatives across the global economy.
-As we move forward, the continued evolution of sustainable data center practices will play a crucial role in addressing the environmental challenges of the digital age. The innovations and achievements we see today are just the beginning of a longer journey toward truly sustainable digital infrastructure.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>The continued evolution of sustainable data center practices will play a crucial role in addressing the environmental challenges of the digital age.</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>The submitted fact is an exact word-for-word match with the original text. It contains specific information about the role of sustainable data center practices in addressing environmental challenges, maintaining its original meaning within the provided context.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2025-02-22T16:34:10.103298</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>llama-3.3-70b-versatile</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1.633129</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>{"chunk_metadata": {"char_length": 1007, "timestamp": "2025-02-22T16:33:39.651696"}, "llm_response": "There are no specific, verifiable facts in the given text. The text consists of general statements, speculation, and opinions about the future of sustainable data center technology and its potential impact on the environment and the economy.\n\nHowever, I can extract some statements that could be considered as facts with low confidence scores:\n\n&lt;fact&gt;The industry continues to explore new frontiers in sustainable data center technology.&lt;/fact&gt; &lt;confidence&gt;0.4&lt;/confidence&gt;\nThis statement is a general claim and lacks specific metrics or verifiable evidence.\n\n&lt;fact&gt;Research into advanced cooling methods, more efficient power distribution systems, and innovative building materials suggests that the next generation of data centers will be even more environmentally friendly while delivering enhanced performance.&lt;/fact&gt; &lt;confidence&gt;0.4&lt;/confidence&gt;\nThis statement is speculative and contains uncertain terms such as \"suggests\" and \"will be.\"\n\n&lt;fact&gt;The lessons learned and technologies developed in the pursuit of green data centers are helping to drive broader sustainability initiatives across the global economy.&lt;/fact&gt; &lt;confidence&gt;0.5&lt;/confidence&gt;\nThis statement is a general claim and lacks specific metrics or verifiable evidence, but it implies a potential impact of sustainable data center practices on the global economy.\n\n&lt;fact&gt;The continued evolution of sustainable data center practices will play a crucial role in addressing the environmental challenges of the digital age.&lt;/fact&gt; &lt;confidence&gt;0.4&lt;/confidence&gt;\nThis statement is a general claim and lacks specific metrics or verifiable evidence, and it contains uncertain terms such as \"will play a crucial role.\"", "extraction_time": 1.633129, "extraction_model": "llama-3.3-70b-versatile"}</t>
+      <c r="K6" t="n">
+        <v>2.806586</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 2968, "timestamp": "2025-02-23T20:04:05.797970"}, "llm_response": "&lt;fact&gt;TSMC successfully demonstrated the world's first 1-nanometer process node, achieving a transistor density of 400 million transistors per square millimeter with a power efficiency of 0.2 watts per million transistors&lt;/fact&gt;\n&lt;fact&gt;The semiconductor industry has adopted extreme ultraviolet (EUV) lithography for patterning circuits onto silicon wafers&lt;/fact&gt;", "extraction_time": 2.806586, "extraction_model": "gpt-3.5-turbo", "fact_number": 1}</t>
         </is>
       </c>
     </row>

--- a/facts.xlsx
+++ b/facts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,293 +498,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-23T19:54:00.777844</t>
+          <t>2025-02-23T20:08:53.260104</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cybersecurity Evolution</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>synthetic_data.py</t>
-        </is>
-      </c>
+          <t>SYNTHETIC_ARTICLE_6</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>The Evolution of Cybersecurity: Adapting to an Ever-Changing Threat Landscape
-In the rapidly evolving digital landscape, cybersecurity has become an increasingly complex and critical discipline. Organizations worldwide face the constant challenge of protecting their digital assets against an ever-expanding array of threats, while simultaneously maintaining operational efficiency and user accessibility. This delicate balance between security and functionality has led to fundamental shifts in how we approach digital protection.
-The traditional perimeter-based security model has given way to more sophisticated, layered approaches that acknowledge the dissolving boundaries of modern networks. As organizations embrace cloud computing, remote work, and interconnected systems, the concept of a clearly defined network edge has become increasingly obsolete. This transformation has necessitated a complete reimagining of security architectures and strategies.
-Zero Trust Architecture has emerged as a response to these changing dynamics, fundamentally altering how organizations approach security. This model assumes no implicit trust, regardless of whether access requests originate from inside or outside traditional network boundaries. Every access request must be validated, every user authenticated, and every device verified before trust is granted. This approach represents a significant departure from traditional security models that assumed internal network traffic could be trusted.
-The human element remains both the greatest vulnerability and the strongest potential defense in cybersecurity. Social engineering attacks continue to evolve in sophistication, targeting not just technology but human psychology. Organizations must balance technical security measures with comprehensive user education and awareness programs. The most robust technical defenses can be circumvented by a single moment of human error, making the human factor a critical consideration in security strategy.
-Artificial Intelligence and Machine Learning have introduced new dimensions to both attack and defense mechanisms in cybersecurity. These technologies enable more sophisticated threat detection and response capabilities, allowing security systems to identify patterns and anomalies that might escape human notice. However, these same technologies also empower attackers, enabling more sophisticated and automated attack vectors that can adapt and evolve in real-time.
-The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Zero Trust Architecture has emerged as a response to changing dynamics in cybersecurity</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>verified</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>The submitted fact is a valid fact.
-1. The fact is a direct statement from the original text.
-2. It names a specific cybersecurity concept, Zero Trust Architecture.
-3. The concept is described as a response to changing dynamics in cybersecurity.
-4. The fact can be directly verified in the original text.
-5. It does not combine information from different parts of the text.
-6. The context and details about Zero Trust Architecture are preserved.
-7. No additional information or inference is added beyond what is explicitly stated.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>llama-3.3-70b-versatile</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>1.357784</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>{"chunk_metadata": {"char_length": 2885, "timestamp": "2025-02-23T19:53:59.387742"}, "llm_response": "&lt;fact&gt;Zero Trust Architecture has emerged as a response to changing dynamics in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Zero Trust Architecture assumes no implicit trust and requires validation of every access request, user authentication, and device verification&lt;/fact&gt;\n&lt;fact&gt;Social engineering attacks continue to evolve in sophistication, targeting human psychology in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Artificial Intelligence and Machine Learning enable more sophisticated threat detection and response capabilities in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Regulatory frameworks and requirements in cybersecurity continue to evolve across different jurisdictions and industries&lt;/fact&gt;", "extraction_time": 1.357784, "extraction_model": "gpt-3.5-turbo", "fact_number": 1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-02-23T19:54:00.777859</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cybersecurity Evolution</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>synthetic_data.py</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The Evolution of Cybersecurity: Adapting to an Ever-Changing Threat Landscape
-In the rapidly evolving digital landscape, cybersecurity has become an increasingly complex and critical discipline. Organizations worldwide face the constant challenge of protecting their digital assets against an ever-expanding array of threats, while simultaneously maintaining operational efficiency and user accessibility. This delicate balance between security and functionality has led to fundamental shifts in how we approach digital protection.
-The traditional perimeter-based security model has given way to more sophisticated, layered approaches that acknowledge the dissolving boundaries of modern networks. As organizations embrace cloud computing, remote work, and interconnected systems, the concept of a clearly defined network edge has become increasingly obsolete. This transformation has necessitated a complete reimagining of security architectures and strategies.
-Zero Trust Architecture has emerged as a response to these changing dynamics, fundamentally altering how organizations approach security. This model assumes no implicit trust, regardless of whether access requests originate from inside or outside traditional network boundaries. Every access request must be validated, every user authenticated, and every device verified before trust is granted. This approach represents a significant departure from traditional security models that assumed internal network traffic could be trusted.
-The human element remains both the greatest vulnerability and the strongest potential defense in cybersecurity. Social engineering attacks continue to evolve in sophistication, targeting not just technology but human psychology. Organizations must balance technical security measures with comprehensive user education and awareness programs. The most robust technical defenses can be circumvented by a single moment of human error, making the human factor a critical consideration in security strategy.
-Artificial Intelligence and Machine Learning have introduced new dimensions to both attack and defense mechanisms in cybersecurity. These technologies enable more sophisticated threat detection and response capabilities, allowing security systems to identify patterns and anomalies that might escape human notice. However, these same technologies also empower attackers, enabling more sophisticated and automated attack vectors that can adapt and evolve in real-time.
-The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Zero Trust Architecture assumes no implicit trust and requires validation of every access request, user authentication, and device verification</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>verified</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>The submitted fact accurately reflects the information provided in the original text. It specifically mentions Zero Trust Architecture, stating that it assumes no implicit trust, requires validation of every access request, user authentication, and device verification. This fact is a direct and verifiable statement from the text, preserving all the key details and context without adding any new information or making any subjective interpretations.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>llama-3.3-70b-versatile</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>1.357784</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>{"chunk_metadata": {"char_length": 2885, "timestamp": "2025-02-23T19:53:59.387742"}, "llm_response": "&lt;fact&gt;Zero Trust Architecture has emerged as a response to changing dynamics in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Zero Trust Architecture assumes no implicit trust and requires validation of every access request, user authentication, and device verification&lt;/fact&gt;\n&lt;fact&gt;Social engineering attacks continue to evolve in sophistication, targeting human psychology in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Artificial Intelligence and Machine Learning enable more sophisticated threat detection and response capabilities in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Regulatory frameworks and requirements in cybersecurity continue to evolve across different jurisdictions and industries&lt;/fact&gt;", "extraction_time": 1.357784, "extraction_model": "gpt-3.5-turbo", "fact_number": 2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-02-23T19:54:00.777868</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cybersecurity Evolution</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>synthetic_data.py</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>The Evolution of Cybersecurity: Adapting to an Ever-Changing Threat Landscape
-In the rapidly evolving digital landscape, cybersecurity has become an increasingly complex and critical discipline. Organizations worldwide face the constant challenge of protecting their digital assets against an ever-expanding array of threats, while simultaneously maintaining operational efficiency and user accessibility. This delicate balance between security and functionality has led to fundamental shifts in how we approach digital protection.
-The traditional perimeter-based security model has given way to more sophisticated, layered approaches that acknowledge the dissolving boundaries of modern networks. As organizations embrace cloud computing, remote work, and interconnected systems, the concept of a clearly defined network edge has become increasingly obsolete. This transformation has necessitated a complete reimagining of security architectures and strategies.
-Zero Trust Architecture has emerged as a response to these changing dynamics, fundamentally altering how organizations approach security. This model assumes no implicit trust, regardless of whether access requests originate from inside or outside traditional network boundaries. Every access request must be validated, every user authenticated, and every device verified before trust is granted. This approach represents a significant departure from traditional security models that assumed internal network traffic could be trusted.
-The human element remains both the greatest vulnerability and the strongest potential defense in cybersecurity. Social engineering attacks continue to evolve in sophistication, targeting not just technology but human psychology. Organizations must balance technical security measures with comprehensive user education and awareness programs. The most robust technical defenses can be circumvented by a single moment of human error, making the human factor a critical consideration in security strategy.
-Artificial Intelligence and Machine Learning have introduced new dimensions to both attack and defense mechanisms in cybersecurity. These technologies enable more sophisticated threat detection and response capabilities, allowing security systems to identify patterns and anomalies that might escape human notice. However, these same technologies also empower attackers, enabling more sophisticated and automated attack vectors that can adapt and evolve in real-time.
-The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Social engineering attacks continue to evolve in sophistication, targeting human psychology in cybersecurity</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>verified</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>The submitted fact is a valid paraphrased fact:
-1. The fact maintains the specific information about social engineering attacks evolving in sophistication.
-2. It includes the detail about targeting human psychology in cybersecurity.
-3. The paraphrased fact preserves the context and specific details from the original text.
-4. No additional information is introduced beyond what is stated in the original text.
-5. The paraphrased fact does not combine information from different parts of the text.
-6. It does not make any subjective assessments or inferences.
-7. The paraphrased fact contains specific information that can be independently verified.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>llama-3.3-70b-versatile</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>1.357784</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>{"chunk_metadata": {"char_length": 2885, "timestamp": "2025-02-23T19:53:59.387742"}, "llm_response": "&lt;fact&gt;Zero Trust Architecture has emerged as a response to changing dynamics in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Zero Trust Architecture assumes no implicit trust and requires validation of every access request, user authentication, and device verification&lt;/fact&gt;\n&lt;fact&gt;Social engineering attacks continue to evolve in sophistication, targeting human psychology in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Artificial Intelligence and Machine Learning enable more sophisticated threat detection and response capabilities in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Regulatory frameworks and requirements in cybersecurity continue to evolve across different jurisdictions and industries&lt;/fact&gt;", "extraction_time": 1.357784, "extraction_model": "gpt-3.5-turbo", "fact_number": 3}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-02-23T19:54:00.777876</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cybersecurity Evolution</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>synthetic_data.py</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The Evolution of Cybersecurity: Adapting to an Ever-Changing Threat Landscape
-In the rapidly evolving digital landscape, cybersecurity has become an increasingly complex and critical discipline. Organizations worldwide face the constant challenge of protecting their digital assets against an ever-expanding array of threats, while simultaneously maintaining operational efficiency and user accessibility. This delicate balance between security and functionality has led to fundamental shifts in how we approach digital protection.
-The traditional perimeter-based security model has given way to more sophisticated, layered approaches that acknowledge the dissolving boundaries of modern networks. As organizations embrace cloud computing, remote work, and interconnected systems, the concept of a clearly defined network edge has become increasingly obsolete. This transformation has necessitated a complete reimagining of security architectures and strategies.
-Zero Trust Architecture has emerged as a response to these changing dynamics, fundamentally altering how organizations approach security. This model assumes no implicit trust, regardless of whether access requests originate from inside or outside traditional network boundaries. Every access request must be validated, every user authenticated, and every device verified before trust is granted. This approach represents a significant departure from traditional security models that assumed internal network traffic could be trusted.
-The human element remains both the greatest vulnerability and the strongest potential defense in cybersecurity. Social engineering attacks continue to evolve in sophistication, targeting not just technology but human psychology. Organizations must balance technical security measures with comprehensive user education and awareness programs. The most robust technical defenses can be circumvented by a single moment of human error, making the human factor a critical consideration in security strategy.
-Artificial Intelligence and Machine Learning have introduced new dimensions to both attack and defense mechanisms in cybersecurity. These technologies enable more sophisticated threat detection and response capabilities, allowing security systems to identify patterns and anomalies that might escape human notice. However, these same technologies also empower attackers, enabling more sophisticated and automated attack vectors that can adapt and evolve in real-time.
-The regulatory landscape surrounding cybersecurity continues to evolve, with new frameworks and requirements emerging across different jurisdictions and industries. Organizations must navigate an increasingly complex web of compliance requirements while maintaining effective security measures. This regulatory environment has led to the development of new approaches to security governance and risk management.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence and Machine Learning enable more sophisticated threat detection and response capabilities in cybersecurity</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>verified</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>The submitted fact is a valid fact:
-1. The fact is a direct paraphrase of the original text.
-2. It maintains the specific technologies mentioned (Artificial Intelligence and Machine Learning).
-3. The statement makes a concrete claim about the capabilities of these technologies in cybersecurity.
-4. All specific details and context from the original text are preserved.
-5. No additional information is added or inferred.
-6. The paraphrase does not combine information from different parts of the text.
-7. The fact contains specific, verifiable information about the role of AI and ML in cybersecurity.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>llama-3.3-70b-versatile</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>1.357784</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>{"chunk_metadata": {"char_length": 2885, "timestamp": "2025-02-23T19:53:59.387742"}, "llm_response": "&lt;fact&gt;Zero Trust Architecture has emerged as a response to changing dynamics in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Zero Trust Architecture assumes no implicit trust and requires validation of every access request, user authentication, and device verification&lt;/fact&gt;\n&lt;fact&gt;Social engineering attacks continue to evolve in sophistication, targeting human psychology in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Artificial Intelligence and Machine Learning enable more sophisticated threat detection and response capabilities in cybersecurity&lt;/fact&gt;\n&lt;fact&gt;Regulatory frameworks and requirements in cybersecurity continue to evolve across different jurisdictions and industries&lt;/fact&gt;", "extraction_time": 1.357784, "extraction_model": "gpt-3.5-turbo", "fact_number": 4}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-02-23T20:04:08.699207</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SYNTHETIC_ARTICLE_6</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
         <is>
           <t>The Future of Semiconductor Manufacturing: Innovation at the Atomic Scale
 The semiconductor industry stands at the forefront of technological innovation, pushing the boundaries of what's possible in electronic device manufacturing. The relentless pursuit of Moore's Law has driven unprecedented advances in manufacturing processes, enabling the creation of increasingly powerful and efficient electronic devices. This journey of innovation continues to reshape the landscape of modern technology.
@@ -796,36 +519,36 @@
 Quality control and yield management have become increasingly sophisticated as manufacturing processes become more complex. Advanced inspection and metrology systems, powered by artificial intelligence and machine learning, enable the detection and correction of defects at scales that were previously impossible to monitor. These capabilities are crucial for maintaining economically viable production yields at advanced technology nodes.</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>TSMC successfully demonstrated the world's first 1-nanometer process node, achieving a transistor density of 400 million transistors per square millimeter with a power efficiency of 0.2 watts per million transistors</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>verified</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>The submitted fact accurately reflects the specific achievement announced in the original text by TSMC regarding the demonstration of the world's first 1-nanometer process node. It includes two specific metrics: transistor density of 400 million transistors per square millimeter and power efficiency of 0.2 watts per million transistors. The fact maintains the complete technical context of the original statement, including the measurements and the entity (TSMC). No additional information is added, and the fact directly matches the verifiable data points provided in the text.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>The submitted fact accurately reflects the specific achievement announced in the original text by TSMC regarding the demonstration of the world's first 1-nanometer process node. It includes two specific measurements: transistor density of 400 million transistors per square millimeter and power efficiency of 0.2 watts per million transistors. The fact maintains the complete technical context of the original statement, including the entity (TSMC) and the achieved metrics. All units are specified (transistors per square millimeter, watts per million transistors), and the conditions of the demonstration are preserved. There is no additional information or inference beyond what was explicitly stated in the original text.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>llama-3.3-70b-versatile</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>2.806586</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>{"chunk_metadata": {"char_length": 2968, "timestamp": "2025-02-23T20:04:05.797970"}, "llm_response": "&lt;fact&gt;TSMC successfully demonstrated the world's first 1-nanometer process node, achieving a transistor density of 400 million transistors per square millimeter with a power efficiency of 0.2 watts per million transistors&lt;/fact&gt;\n&lt;fact&gt;The semiconductor industry has adopted extreme ultraviolet (EUV) lithography for patterning circuits onto silicon wafers&lt;/fact&gt;", "extraction_time": 2.806586, "extraction_model": "gpt-3.5-turbo", "fact_number": 1}</t>
+      <c r="K2" t="n">
+        <v>1.281868</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 2968, "timestamp": "2025-02-23T20:08:51.944499"}, "llm_response": "&lt;fact&gt;TSMC successfully demonstrated the world's first 1-nanometer process node, achieving a transistor density of 400 million transistors per square millimeter with a power efficiency of 0.2 watts per million transistors&lt;/fact&gt;\n&lt;fact&gt;The semiconductor industry has adopted extreme ultraviolet (EUV) lithography for patterning circuits onto silicon wafers&lt;/fact&gt;", "extraction_time": 1.281868, "extraction_model": "gpt-3.5-turbo", "fact_number": 1}</t>
         </is>
       </c>
     </row>

--- a/facts.xlsx
+++ b/facts.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,11 @@
           <t>SYNTHETIC_ARTICLE_6</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>The Future of Semiconductor Manufacturing: Innovation at the Atomic Scale
@@ -534,7 +538,11 @@
           <t>The submitted fact accurately reflects the specific achievement announced in the original text by TSMC regarding the demonstration of the world's first 1-nanometer process node. It includes two specific measurements: transistor density of 400 million transistors per square millimeter and power efficiency of 0.2 watts per million transistors. The fact maintains the complete technical context of the original statement, including the entity (TSMC) and the achieved metrics. All units are specified (transistors per square millimeter, watts per million transistors), and the conditions of the demonstration are preserved. There is no additional information or inference beyond what was explicitly stated in the original text.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -549,6 +557,1095 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>{"chunk_metadata": {"char_length": 2968, "timestamp": "2025-02-23T20:08:51.944499"}, "llm_response": "&lt;fact&gt;TSMC successfully demonstrated the world's first 1-nanometer process node, achieving a transistor density of 400 million transistors per square millimeter with a power efficiency of 0.2 watts per million transistors&lt;/fact&gt;\n&lt;fact&gt;The semiconductor industry has adopted extreme ultraviolet (EUV) lithography for patterning circuits onto silicon wafers&lt;/fact&gt;", "extraction_time": 1.281868, "extraction_model": "gpt-3.5-turbo", "fact_number": 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-02-24T00:08:59.553755</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NICHOLAS PATE 
+329 E 63rd, #3A | New York, NY 10065 
+Tel: 512-966-4317 | E-mail: nicholas.pate1320@gmail.com 
+EXPERIENCE 
+Dell Technologies 
+Corporate Strategy Consultant 
+New York, NY 
+Nov 2021 – Present 
+• Led AI strategy projects, scoping and structuring complex questions and executing hypotheses-driven frameworks 
+• Synthesized insights into internal and external collateral; delivered strategic recommendations to senior leadership 
+• Conducted primary market research and developed data-driven insights to inform AI growth strategies 
+• Developed and led AI training initiatives, including upskilling and thought leadership for Corporate Strategy team 
+• Delivered macroeconomic, business, and consumer insights to SVP and C-Suite executives to aid in annual planning 
+• Built relationships and collaborated effectively with colleagues at all levels to create and drive adoption of AI strategies 
+L.E.K. Consulting 
+Consultant 
+Summer Consultant 
+New York, NY 
+Jan 2021 – Oct 2021  
+Summer 2019 
+• Led and managed teams of 2-3 associates in the execution of commercial and vendor due diligence projects, providing 
+valuable insights for buy-side and sell-side transactions 
+• Developed and implemented hypothesis-led frameworks to provide comprehensive market dynamics insights, 
+including growth drivers, competitive landscapes, customer segmentation, unmet needs, and key purchasing criteria 
+• Conducted primary market research through the development of consumer surveys and interview guides, providing 
+data-driven insights to inform growth strategies 
+• Developed market size models to determine current market size and forecasted growth, aiding in strategic decision-
+making for clients across various industries 
+Grant Thornton LLP 
+Senior Associate Consultant – Strategy and Performance Improvement  
+Associate Consultant – Business Consulting (Dallas, TX) 
+New York, NY 
+2016 - 2018 
+2014-2016 
+• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
+analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
+• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
+opportunities for clients</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Nicholas Pate worked as a Consultant at L.E.K. Consulting in New York, NY from Jan 2021 to Oct 2021</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>The submitted fact states that Nicholas Pate worked as a Consultant at L.E.K. Consulting in New York, NY from Jan 2021 to Oct 2021. This fact can be verified directly from the original text, which clearly mentions Nicholas Pate's experience at L.E.K. Consulting as a Consultant during the specified time period.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>llama-3.3-70b-versatile</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>3.974826</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 2286, "timestamp": "2025-02-24T00:08:55.555905"}, "llm_response": "&lt;fact&gt;Nicholas Pate's phone number is 512-966-4317&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate's email address is nicholas.pate1320@gmail.com&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate worked as a Corporate Strategy Consultant at Dell Technologies in New York, NY from Nov 2021 to Present&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate led AI strategy projects at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate conducted primary market research at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate developed and led AI training initiatives at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate delivered macroeconomic, business, and consumer insights to SVP and C-Suite executives at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate worked as a Consultant at L.E.K. Consulting in New York, NY from Jan 2021 to Oct 2021&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate led and managed teams of 2-3 associates at L.E.K. Consulting&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate developed and implemented hypothesis-led frameworks at L.E.K. Consulting&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate conducted primary market research through the development of consumer surveys and interview guides at L.E.K. Consulting&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate worked as a Senior Associate Consultant at Grant Thornton LLP in New York, NY from 2016 to 2018&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate consulted for 10+ clients over 4+ years at Grant Thornton LLP&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate led data-driven projects using SQL analytics at Grant Thornton LLP&lt;/fact&gt;", "extraction_time": 3.974826, "extraction_model": "gpt-3.5-turbo", "fact_number": 8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-02-24T00:08:59.553765</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NICHOLAS PATE 
+329 E 63rd, #3A | New York, NY 10065 
+Tel: 512-966-4317 | E-mail: nicholas.pate1320@gmail.com 
+EXPERIENCE 
+Dell Technologies 
+Corporate Strategy Consultant 
+New York, NY 
+Nov 2021 – Present 
+• Led AI strategy projects, scoping and structuring complex questions and executing hypotheses-driven frameworks 
+• Synthesized insights into internal and external collateral; delivered strategic recommendations to senior leadership 
+• Conducted primary market research and developed data-driven insights to inform AI growth strategies 
+• Developed and led AI training initiatives, including upskilling and thought leadership for Corporate Strategy team 
+• Delivered macroeconomic, business, and consumer insights to SVP and C-Suite executives to aid in annual planning 
+• Built relationships and collaborated effectively with colleagues at all levels to create and drive adoption of AI strategies 
+L.E.K. Consulting 
+Consultant 
+Summer Consultant 
+New York, NY 
+Jan 2021 – Oct 2021  
+Summer 2019 
+• Led and managed teams of 2-3 associates in the execution of commercial and vendor due diligence projects, providing 
+valuable insights for buy-side and sell-side transactions 
+• Developed and implemented hypothesis-led frameworks to provide comprehensive market dynamics insights, 
+including growth drivers, competitive landscapes, customer segmentation, unmet needs, and key purchasing criteria 
+• Conducted primary market research through the development of consumer surveys and interview guides, providing 
+data-driven insights to inform growth strategies 
+• Developed market size models to determine current market size and forecasted growth, aiding in strategic decision-
+making for clients across various industries 
+Grant Thornton LLP 
+Senior Associate Consultant – Strategy and Performance Improvement  
+Associate Consultant – Business Consulting (Dallas, TX) 
+New York, NY 
+2016 - 2018 
+2014-2016 
+• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
+analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
+• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
+opportunities for clients</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nicholas Pate led and managed teams of 2-3 associates at L.E.K. Consulting</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>The submitted fact states that Nicholas Pate led and managed teams of 2-3 associates at L.E.K. Consulting. This fact can be verified directly from the original text in the experience section where it mentions that Nicholas Pate "Led and managed teams of 2-3 associates in the execution of commercial and vendor due diligence projects" during his time at L.E.K. Consulting. The fact preserves the specific number of associates (2-3) and the context of his role at the consulting firm.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>llama-3.3-70b-versatile</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>3.974826</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 2286, "timestamp": "2025-02-24T00:08:55.555905"}, "llm_response": "&lt;fact&gt;Nicholas Pate's phone number is 512-966-4317&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate's email address is nicholas.pate1320@gmail.com&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate worked as a Corporate Strategy Consultant at Dell Technologies in New York, NY from Nov 2021 to Present&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate led AI strategy projects at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate conducted primary market research at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate developed and led AI training initiatives at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate delivered macroeconomic, business, and consumer insights to SVP and C-Suite executives at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate worked as a Consultant at L.E.K. Consulting in New York, NY from Jan 2021 to Oct 2021&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate led and managed teams of 2-3 associates at L.E.K. Consulting&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate developed and implemented hypothesis-led frameworks at L.E.K. Consulting&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate conducted primary market research through the development of consumer surveys and interview guides at L.E.K. Consulting&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate worked as a Senior Associate Consultant at Grant Thornton LLP in New York, NY from 2016 to 2018&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate consulted for 10+ clients over 4+ years at Grant Thornton LLP&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate led data-driven projects using SQL analytics at Grant Thornton LLP&lt;/fact&gt;", "extraction_time": 3.974826, "extraction_model": "gpt-3.5-turbo", "fact_number": 9}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-02-24T00:08:59.553788</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NICHOLAS PATE 
+329 E 63rd, #3A | New York, NY 10065 
+Tel: 512-966-4317 | E-mail: nicholas.pate1320@gmail.com 
+EXPERIENCE 
+Dell Technologies 
+Corporate Strategy Consultant 
+New York, NY 
+Nov 2021 – Present 
+• Led AI strategy projects, scoping and structuring complex questions and executing hypotheses-driven frameworks 
+• Synthesized insights into internal and external collateral; delivered strategic recommendations to senior leadership 
+• Conducted primary market research and developed data-driven insights to inform AI growth strategies 
+• Developed and led AI training initiatives, including upskilling and thought leadership for Corporate Strategy team 
+• Delivered macroeconomic, business, and consumer insights to SVP and C-Suite executives to aid in annual planning 
+• Built relationships and collaborated effectively with colleagues at all levels to create and drive adoption of AI strategies 
+L.E.K. Consulting 
+Consultant 
+Summer Consultant 
+New York, NY 
+Jan 2021 – Oct 2021  
+Summer 2019 
+• Led and managed teams of 2-3 associates in the execution of commercial and vendor due diligence projects, providing 
+valuable insights for buy-side and sell-side transactions 
+• Developed and implemented hypothesis-led frameworks to provide comprehensive market dynamics insights, 
+including growth drivers, competitive landscapes, customer segmentation, unmet needs, and key purchasing criteria 
+• Conducted primary market research through the development of consumer surveys and interview guides, providing 
+data-driven insights to inform growth strategies 
+• Developed market size models to determine current market size and forecasted growth, aiding in strategic decision-
+making for clients across various industries 
+Grant Thornton LLP 
+Senior Associate Consultant – Strategy and Performance Improvement  
+Associate Consultant – Business Consulting (Dallas, TX) 
+New York, NY 
+2016 - 2018 
+2014-2016 
+• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
+analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
+• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
+opportunities for clients</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nicholas Pate conducted primary market research through the development of consumer surveys and interview guides at L.E.K. Consulting</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>The submitted fact accurately reflects the original text. Nicholas Pate's involvement in conducting primary market research through the development of consumer surveys and interview guides at L.E.K. Consulting is explicitly mentioned in the provided text. The fact maintains the specific activity, context, and role performed by Nicholas Pate during his time at L.E.K. Consulting without adding any new information or making any inferences.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>llama-3.3-70b-versatile</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>3.974826</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 2286, "timestamp": "2025-02-24T00:08:55.555905"}, "llm_response": "&lt;fact&gt;Nicholas Pate's phone number is 512-966-4317&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate's email address is nicholas.pate1320@gmail.com&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate worked as a Corporate Strategy Consultant at Dell Technologies in New York, NY from Nov 2021 to Present&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate led AI strategy projects at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate conducted primary market research at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate developed and led AI training initiatives at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate delivered macroeconomic, business, and consumer insights to SVP and C-Suite executives at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate worked as a Consultant at L.E.K. Consulting in New York, NY from Jan 2021 to Oct 2021&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate led and managed teams of 2-3 associates at L.E.K. Consulting&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate developed and implemented hypothesis-led frameworks at L.E.K. Consulting&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate conducted primary market research through the development of consumer surveys and interview guides at L.E.K. Consulting&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate worked as a Senior Associate Consultant at Grant Thornton LLP in New York, NY from 2016 to 2018&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate consulted for 10+ clients over 4+ years at Grant Thornton LLP&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate led data-driven projects using SQL analytics at Grant Thornton LLP&lt;/fact&gt;", "extraction_time": 3.974826, "extraction_model": "gpt-3.5-turbo", "fact_number": 11}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-02-24T00:08:59.553800</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NICHOLAS PATE 
+329 E 63rd, #3A | New York, NY 10065 
+Tel: 512-966-4317 | E-mail: nicholas.pate1320@gmail.com 
+EXPERIENCE 
+Dell Technologies 
+Corporate Strategy Consultant 
+New York, NY 
+Nov 2021 – Present 
+• Led AI strategy projects, scoping and structuring complex questions and executing hypotheses-driven frameworks 
+• Synthesized insights into internal and external collateral; delivered strategic recommendations to senior leadership 
+• Conducted primary market research and developed data-driven insights to inform AI growth strategies 
+• Developed and led AI training initiatives, including upskilling and thought leadership for Corporate Strategy team 
+• Delivered macroeconomic, business, and consumer insights to SVP and C-Suite executives to aid in annual planning 
+• Built relationships and collaborated effectively with colleagues at all levels to create and drive adoption of AI strategies 
+L.E.K. Consulting 
+Consultant 
+Summer Consultant 
+New York, NY 
+Jan 2021 – Oct 2021  
+Summer 2019 
+• Led and managed teams of 2-3 associates in the execution of commercial and vendor due diligence projects, providing 
+valuable insights for buy-side and sell-side transactions 
+• Developed and implemented hypothesis-led frameworks to provide comprehensive market dynamics insights, 
+including growth drivers, competitive landscapes, customer segmentation, unmet needs, and key purchasing criteria 
+• Conducted primary market research through the development of consumer surveys and interview guides, providing 
+data-driven insights to inform growth strategies 
+• Developed market size models to determine current market size and forecasted growth, aiding in strategic decision-
+making for clients across various industries 
+Grant Thornton LLP 
+Senior Associate Consultant – Strategy and Performance Improvement  
+Associate Consultant – Business Consulting (Dallas, TX) 
+New York, NY 
+2016 - 2018 
+2014-2016 
+• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
+analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
+• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
+opportunities for clients</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nicholas Pate worked as a Senior Associate Consultant at Grant Thornton LLP in New York, NY from 2016 to 2018</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>The submitted fact accurately reflects the information provided in the original text. It names the specific individual (Nicholas Pate), the position held (Senior Associate Consultant), the company (Grant Thornton LLP), the location (New York, NY), and the time frame (2016 - 2018). The fact contains specific, verifiable data points and maintains all the necessary details without adding any inference or additional information. It meets all the criteria for a valid fact based on the original text.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>llama-3.3-70b-versatile</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>3.974826</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 2286, "timestamp": "2025-02-24T00:08:55.555905"}, "llm_response": "&lt;fact&gt;Nicholas Pate's phone number is 512-966-4317&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate's email address is nicholas.pate1320@gmail.com&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate worked as a Corporate Strategy Consultant at Dell Technologies in New York, NY from Nov 2021 to Present&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate led AI strategy projects at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate conducted primary market research at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate developed and led AI training initiatives at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate delivered macroeconomic, business, and consumer insights to SVP and C-Suite executives at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate worked as a Consultant at L.E.K. Consulting in New York, NY from Jan 2021 to Oct 2021&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate led and managed teams of 2-3 associates at L.E.K. Consulting&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate developed and implemented hypothesis-led frameworks at L.E.K. Consulting&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate conducted primary market research through the development of consumer surveys and interview guides at L.E.K. Consulting&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate worked as a Senior Associate Consultant at Grant Thornton LLP in New York, NY from 2016 to 2018&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate consulted for 10+ clients over 4+ years at Grant Thornton LLP&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate led data-driven projects using SQL analytics at Grant Thornton LLP&lt;/fact&gt;", "extraction_time": 3.974826, "extraction_model": "gpt-3.5-turbo", "fact_number": 12}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-02-24T00:08:59.553821</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NICHOLAS PATE 
+329 E 63rd, #3A | New York, NY 10065 
+Tel: 512-966-4317 | E-mail: nicholas.pate1320@gmail.com 
+EXPERIENCE 
+Dell Technologies 
+Corporate Strategy Consultant 
+New York, NY 
+Nov 2021 – Present 
+• Led AI strategy projects, scoping and structuring complex questions and executing hypotheses-driven frameworks 
+• Synthesized insights into internal and external collateral; delivered strategic recommendations to senior leadership 
+• Conducted primary market research and developed data-driven insights to inform AI growth strategies 
+• Developed and led AI training initiatives, including upskilling and thought leadership for Corporate Strategy team 
+• Delivered macroeconomic, business, and consumer insights to SVP and C-Suite executives to aid in annual planning 
+• Built relationships and collaborated effectively with colleagues at all levels to create and drive adoption of AI strategies 
+L.E.K. Consulting 
+Consultant 
+Summer Consultant 
+New York, NY 
+Jan 2021 – Oct 2021  
+Summer 2019 
+• Led and managed teams of 2-3 associates in the execution of commercial and vendor due diligence projects, providing 
+valuable insights for buy-side and sell-side transactions 
+• Developed and implemented hypothesis-led frameworks to provide comprehensive market dynamics insights, 
+including growth drivers, competitive landscapes, customer segmentation, unmet needs, and key purchasing criteria 
+• Conducted primary market research through the development of consumer surveys and interview guides, providing 
+data-driven insights to inform growth strategies 
+• Developed market size models to determine current market size and forecasted growth, aiding in strategic decision-
+making for clients across various industries 
+Grant Thornton LLP 
+Senior Associate Consultant – Strategy and Performance Improvement  
+Associate Consultant – Business Consulting (Dallas, TX) 
+New York, NY 
+2016 - 2018 
+2014-2016 
+• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
+analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
+• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
+opportunities for clients</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nicholas Pate led data-driven projects using SQL analytics at Grant Thornton LLP</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>The submitted fact accurately reflects the original text. Nicholas Pate's role at Grant Thornton LLP included leading data-driven projects using SQL analytics, as stated in the text. This statement directly matches the information provided in the experience section of the original text without adding any new information or making any inferences. The fact contains a specific, measurable data point (use of SQL analytics) that can be independently verified through the original text.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>llama-3.3-70b-versatile</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>3.974826</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 2286, "timestamp": "2025-02-24T00:08:55.555905"}, "llm_response": "&lt;fact&gt;Nicholas Pate's phone number is 512-966-4317&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate's email address is nicholas.pate1320@gmail.com&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate worked as a Corporate Strategy Consultant at Dell Technologies in New York, NY from Nov 2021 to Present&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate led AI strategy projects at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate conducted primary market research at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate developed and led AI training initiatives at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate delivered macroeconomic, business, and consumer insights to SVP and C-Suite executives at Dell Technologies&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate worked as a Consultant at L.E.K. Consulting in New York, NY from Jan 2021 to Oct 2021&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate led and managed teams of 2-3 associates at L.E.K. Consulting&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate developed and implemented hypothesis-led frameworks at L.E.K. Consulting&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate conducted primary market research through the development of consumer surveys and interview guides at L.E.K. Consulting&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate worked as a Senior Associate Consultant at Grant Thornton LLP in New York, NY from 2016 to 2018&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate consulted for 10+ clients over 4+ years at Grant Thornton LLP&lt;/fact&gt;\n&lt;fact&gt;Nicholas Pate led data-driven projects using SQL analytics at Grant Thornton LLP&lt;/fact&gt;", "extraction_time": 3.974826, "extraction_model": "gpt-3.5-turbo", "fact_number": 14}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-02-24T00:09:27.919316</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>New York, NY 
+2016 - 2018 
+2014-2016 
+• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
+analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
+• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
+opportunities for clients 
+• Developed and presented quantitative business cases, influencing key decision-making processes for clients 
+EDUCATION 
+NEW YORK UNIVERSITY, Leonard N. Stern School of Business 
+Master of Business Administration 
+Specializations in Strategy, Business Analytics, and Management 
+New York, NY 
+May 2020 
+• Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club 
+• Member - Stern Technology Association; Management Consulting Association 
+• Teaching Fellow - Digital Strategy; Programming in Python 
+SOUTHWESTERN UNIVERSITY 
+Bachelor of Arts in Business and Economics 
+Georgetown, TX 
+ May 2013 
+• Dean’s List 
+ADDITIONAL INFORMATION 
+• Skills: Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, 
+Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management 
+• Certifications: OpenAI API Bootcamp - Udemy; Intermediate Python for Data Science – DataCamp 
+• Volunteering: Mentor for 15+ middle school, high school, and first-generation college students over 5 different 
+organizations since 2014, providing educational, professional, and personal guidance 
+• Interests: Competitive bowler with ten 300 games, avid musician (singing, piano, and guitar), and coffee roaster</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Developed and presented quantitative business cases, influencing key decision-making processes for clients</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>The submitted fact "Developed and presented quantitative business cases, influencing key decision-making processes for clients" is a valid fact based on the original text. 
+1. The fact directly corresponds to the information provided in the original text about the individual's professional experience.
+2. It names specific activities (developing and presenting quantitative business cases) performed by the individual.
+3. The fact contains a specific, measurable data point related to the individual's work experience.
+4. The context for the fact is complete, mentioning the influence on key decision-making processes for clients.
+5. No additional information is added, and the fact maintains the specific details from the original text.
+6. The fact does not combine information from different parts of the text or make any inferences.
+7. It meets all the criteria for a valid fact as per the verification guidelines.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>llama-3.3-70b-versatile</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>2.883745</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 1729, "timestamp": "2025-02-24T00:09:25.024404"}, "llm_response": "&lt;fact&gt;Consulted for 10+ clients over 4+ years, finding $100M+ in operational improvement opportunities&lt;/fact&gt;\n&lt;fact&gt;Developed and presented quantitative business cases, influencing key decision-making processes for clients&lt;/fact&gt;\n&lt;fact&gt;Master of Business Administration from NEW YORK UNIVERSITY, Leonard N. Stern School of Business&lt;/fact&gt;\n&lt;fact&gt;Specializations in Strategy, Business Analytics, and Management&lt;/fact&gt;\n&lt;fact&gt;Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club&lt;/fact&gt;\n&lt;fact&gt;Member of Stern Technology Association and Management Consulting Association&lt;/fact&gt;\n&lt;fact&gt;Teaching Fellow for Digital Strategy and Programming in Python&lt;/fact&gt;\n&lt;fact&gt;Bachelor of Arts in Business and Economics from SOUTHWESTERN UNIVERSITY&lt;/fact&gt;\n&lt;fact&gt;Dean's List recipient&lt;/fact&gt;\n&lt;fact&gt;Skills include Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management&lt;/fact&gt;\n&lt;fact&gt;Certifications in OpenAI API Bootcamp from Udemy and Intermediate Python for Data Science from DataCamp&lt;/fact&gt;\n&lt;fact&gt;Volunteering experience as a mentor for 15+ students across different organizations since 2014&lt;/fact&gt;\n&lt;fact&gt;Interests include competitive bowling with ten 300 games, music (singing, piano, guitar), and coffee roasting&lt;/fact&gt;", "extraction_time": 2.883745, "extraction_model": "gpt-3.5-turbo", "fact_number": 2}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-02-24T00:09:27.919329</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>New York, NY 
+2016 - 2018 
+2014-2016 
+• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
+analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
+• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
+opportunities for clients 
+• Developed and presented quantitative business cases, influencing key decision-making processes for clients 
+EDUCATION 
+NEW YORK UNIVERSITY, Leonard N. Stern School of Business 
+Master of Business Administration 
+Specializations in Strategy, Business Analytics, and Management 
+New York, NY 
+May 2020 
+• Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club 
+• Member - Stern Technology Association; Management Consulting Association 
+• Teaching Fellow - Digital Strategy; Programming in Python 
+SOUTHWESTERN UNIVERSITY 
+Bachelor of Arts in Business and Economics 
+Georgetown, TX 
+ May 2013 
+• Dean’s List 
+ADDITIONAL INFORMATION 
+• Skills: Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, 
+Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management 
+• Certifications: OpenAI API Bootcamp - Udemy; Intermediate Python for Data Science – DataCamp 
+• Volunteering: Mentor for 15+ middle school, high school, and first-generation college students over 5 different 
+organizations since 2014, providing educational, professional, and personal guidance 
+• Interests: Competitive bowler with ten 300 games, avid musician (singing, piano, and guitar), and coffee roaster</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Master of Business Administration from NEW YORK UNIVERSITY, Leonard N. Stern School of Business</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>The submitted fact "Master of Business Administration from NEW YORK UNIVERSITY, Leonard N. Stern School of Business" is a valid fact based on the original text. It meets all the verification criteria:
+1. Contains a specific, measurable data point: Master of Business Administration degree.
+2. Names specific entities with their full, proper names: NEW YORK UNIVERSITY, Leonard N. Stern School of Business.
+3. Makes a concrete, testable claim that can be independently verified through the original text.
+4. Matches the original text verbatim.
+5. Contains complete technical context for the measurement.
+6. Includes the unit for the degree (Master of Business Administration).
+7. Specifies the conditions for the measurement (obtained from NEW YORK UNIVERSITY, Leonard N. Stern School of Business).
+8. Does not combine information from different parts of the text.
+9. Does not infer any relationships not explicitly stated.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>llama-3.3-70b-versatile</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>2.883745</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 1729, "timestamp": "2025-02-24T00:09:25.024404"}, "llm_response": "&lt;fact&gt;Consulted for 10+ clients over 4+ years, finding $100M+ in operational improvement opportunities&lt;/fact&gt;\n&lt;fact&gt;Developed and presented quantitative business cases, influencing key decision-making processes for clients&lt;/fact&gt;\n&lt;fact&gt;Master of Business Administration from NEW YORK UNIVERSITY, Leonard N. Stern School of Business&lt;/fact&gt;\n&lt;fact&gt;Specializations in Strategy, Business Analytics, and Management&lt;/fact&gt;\n&lt;fact&gt;Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club&lt;/fact&gt;\n&lt;fact&gt;Member of Stern Technology Association and Management Consulting Association&lt;/fact&gt;\n&lt;fact&gt;Teaching Fellow for Digital Strategy and Programming in Python&lt;/fact&gt;\n&lt;fact&gt;Bachelor of Arts in Business and Economics from SOUTHWESTERN UNIVERSITY&lt;/fact&gt;\n&lt;fact&gt;Dean's List recipient&lt;/fact&gt;\n&lt;fact&gt;Skills include Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management&lt;/fact&gt;\n&lt;fact&gt;Certifications in OpenAI API Bootcamp from Udemy and Intermediate Python for Data Science from DataCamp&lt;/fact&gt;\n&lt;fact&gt;Volunteering experience as a mentor for 15+ students across different organizations since 2014&lt;/fact&gt;\n&lt;fact&gt;Interests include competitive bowling with ten 300 games, music (singing, piano, guitar), and coffee roasting&lt;/fact&gt;", "extraction_time": 2.883745, "extraction_model": "gpt-3.5-turbo", "fact_number": 3}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-02-24T00:09:27.919747</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>New York, NY 
+2016 - 2018 
+2014-2016 
+• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
+analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
+• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
+opportunities for clients 
+• Developed and presented quantitative business cases, influencing key decision-making processes for clients 
+EDUCATION 
+NEW YORK UNIVERSITY, Leonard N. Stern School of Business 
+Master of Business Administration 
+Specializations in Strategy, Business Analytics, and Management 
+New York, NY 
+May 2020 
+• Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club 
+• Member - Stern Technology Association; Management Consulting Association 
+• Teaching Fellow - Digital Strategy; Programming in Python 
+SOUTHWESTERN UNIVERSITY 
+Bachelor of Arts in Business and Economics 
+Georgetown, TX 
+ May 2013 
+• Dean’s List 
+ADDITIONAL INFORMATION 
+• Skills: Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, 
+Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management 
+• Certifications: OpenAI API Bootcamp - Udemy; Intermediate Python for Data Science – DataCamp 
+• Volunteering: Mentor for 15+ middle school, high school, and first-generation college students over 5 different 
+organizations since 2014, providing educational, professional, and personal guidance 
+• Interests: Competitive bowler with ten 300 games, avid musician (singing, piano, and guitar), and coffee roaster</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bachelor of Arts in Business and Economics from SOUTHWESTERN UNIVERSITY</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>The submitted fact "Bachelor of Arts in Business and Economics from SOUTHWESTERN UNIVERSITY" can be verified as a valid fact based on the original text. The original text explicitly states the educational background of the individual, mentioning the completion of a Bachelor of Arts in Business and Economics from Southwestern University in May 2013. The fact preserves the specific degree, field of study, and the name of the educational institution without any added inference or missing information. It meets all the criteria for a valid fact as it contains a specific, verifiable data point, names the entity with its full name, and can be directly verified through the original text.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>llama-3.3-70b-versatile</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>2.883745</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 1729, "timestamp": "2025-02-24T00:09:25.024404"}, "llm_response": "&lt;fact&gt;Consulted for 10+ clients over 4+ years, finding $100M+ in operational improvement opportunities&lt;/fact&gt;\n&lt;fact&gt;Developed and presented quantitative business cases, influencing key decision-making processes for clients&lt;/fact&gt;\n&lt;fact&gt;Master of Business Administration from NEW YORK UNIVERSITY, Leonard N. Stern School of Business&lt;/fact&gt;\n&lt;fact&gt;Specializations in Strategy, Business Analytics, and Management&lt;/fact&gt;\n&lt;fact&gt;Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club&lt;/fact&gt;\n&lt;fact&gt;Member of Stern Technology Association and Management Consulting Association&lt;/fact&gt;\n&lt;fact&gt;Teaching Fellow for Digital Strategy and Programming in Python&lt;/fact&gt;\n&lt;fact&gt;Bachelor of Arts in Business and Economics from SOUTHWESTERN UNIVERSITY&lt;/fact&gt;\n&lt;fact&gt;Dean's List recipient&lt;/fact&gt;\n&lt;fact&gt;Skills include Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management&lt;/fact&gt;\n&lt;fact&gt;Certifications in OpenAI API Bootcamp from Udemy and Intermediate Python for Data Science from DataCamp&lt;/fact&gt;\n&lt;fact&gt;Volunteering experience as a mentor for 15+ students across different organizations since 2014&lt;/fact&gt;\n&lt;fact&gt;Interests include competitive bowling with ten 300 games, music (singing, piano, guitar), and coffee roasting&lt;/fact&gt;", "extraction_time": 2.883745, "extraction_model": "gpt-3.5-turbo", "fact_number": 8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-24T00:09:27.919776</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>New York, NY 
+2016 - 2018 
+2014-2016 
+• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
+analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
+• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
+opportunities for clients 
+• Developed and presented quantitative business cases, influencing key decision-making processes for clients 
+EDUCATION 
+NEW YORK UNIVERSITY, Leonard N. Stern School of Business 
+Master of Business Administration 
+Specializations in Strategy, Business Analytics, and Management 
+New York, NY 
+May 2020 
+• Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club 
+• Member - Stern Technology Association; Management Consulting Association 
+• Teaching Fellow - Digital Strategy; Programming in Python 
+SOUTHWESTERN UNIVERSITY 
+Bachelor of Arts in Business and Economics 
+Georgetown, TX 
+ May 2013 
+• Dean’s List 
+ADDITIONAL INFORMATION 
+• Skills: Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, 
+Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management 
+• Certifications: OpenAI API Bootcamp - Udemy; Intermediate Python for Data Science – DataCamp 
+• Volunteering: Mentor for 15+ middle school, high school, and first-generation college students over 5 different 
+organizations since 2014, providing educational, professional, and personal guidance 
+• Interests: Competitive bowler with ten 300 games, avid musician (singing, piano, and guitar), and coffee roaster</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Skills include Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>The submitted fact matches the original text verbatim and lists specific skills possessed by the individual, including Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, and Project Management.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>llama-3.3-70b-versatile</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>2.883745</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 1729, "timestamp": "2025-02-24T00:09:25.024404"}, "llm_response": "&lt;fact&gt;Consulted for 10+ clients over 4+ years, finding $100M+ in operational improvement opportunities&lt;/fact&gt;\n&lt;fact&gt;Developed and presented quantitative business cases, influencing key decision-making processes for clients&lt;/fact&gt;\n&lt;fact&gt;Master of Business Administration from NEW YORK UNIVERSITY, Leonard N. Stern School of Business&lt;/fact&gt;\n&lt;fact&gt;Specializations in Strategy, Business Analytics, and Management&lt;/fact&gt;\n&lt;fact&gt;Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club&lt;/fact&gt;\n&lt;fact&gt;Member of Stern Technology Association and Management Consulting Association&lt;/fact&gt;\n&lt;fact&gt;Teaching Fellow for Digital Strategy and Programming in Python&lt;/fact&gt;\n&lt;fact&gt;Bachelor of Arts in Business and Economics from SOUTHWESTERN UNIVERSITY&lt;/fact&gt;\n&lt;fact&gt;Dean's List recipient&lt;/fact&gt;\n&lt;fact&gt;Skills include Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management&lt;/fact&gt;\n&lt;fact&gt;Certifications in OpenAI API Bootcamp from Udemy and Intermediate Python for Data Science from DataCamp&lt;/fact&gt;\n&lt;fact&gt;Volunteering experience as a mentor for 15+ students across different organizations since 2014&lt;/fact&gt;\n&lt;fact&gt;Interests include competitive bowling with ten 300 games, music (singing, piano, guitar), and coffee roasting&lt;/fact&gt;", "extraction_time": 2.883745, "extraction_model": "gpt-3.5-turbo", "fact_number": 10}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-02-24T00:09:27.919789</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>New York, NY 
+2016 - 2018 
+2014-2016 
+• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
+analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
+• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
+opportunities for clients 
+• Developed and presented quantitative business cases, influencing key decision-making processes for clients 
+EDUCATION 
+NEW YORK UNIVERSITY, Leonard N. Stern School of Business 
+Master of Business Administration 
+Specializations in Strategy, Business Analytics, and Management 
+New York, NY 
+May 2020 
+• Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club 
+• Member - Stern Technology Association; Management Consulting Association 
+• Teaching Fellow - Digital Strategy; Programming in Python 
+SOUTHWESTERN UNIVERSITY 
+Bachelor of Arts in Business and Economics 
+Georgetown, TX 
+ May 2013 
+• Dean’s List 
+ADDITIONAL INFORMATION 
+• Skills: Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, 
+Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management 
+• Certifications: OpenAI API Bootcamp - Udemy; Intermediate Python for Data Science – DataCamp 
+• Volunteering: Mentor for 15+ middle school, high school, and first-generation college students over 5 different 
+organizations since 2014, providing educational, professional, and personal guidance 
+• Interests: Competitive bowler with ten 300 games, avid musician (singing, piano, and guitar), and coffee roaster</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Certifications in OpenAI API Bootcamp from Udemy and Intermediate Python for Data Science from DataCamp</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>The submitted fact is a valid fact based on the original text. It directly matches the information provided in the "ADDITIONAL INFORMATION" section regarding the certifications obtained by the individual. The fact preserves the specific certifications mentioned, "OpenAI API Bootcamp - Udemy" and "Intermediate Python for Data Science – DataCamp," without adding any new information or inference. The fact contains specific, verifiable data points about the individual's certifications.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>llama-3.3-70b-versatile</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>2.883745</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 1729, "timestamp": "2025-02-24T00:09:25.024404"}, "llm_response": "&lt;fact&gt;Consulted for 10+ clients over 4+ years, finding $100M+ in operational improvement opportunities&lt;/fact&gt;\n&lt;fact&gt;Developed and presented quantitative business cases, influencing key decision-making processes for clients&lt;/fact&gt;\n&lt;fact&gt;Master of Business Administration from NEW YORK UNIVERSITY, Leonard N. Stern School of Business&lt;/fact&gt;\n&lt;fact&gt;Specializations in Strategy, Business Analytics, and Management&lt;/fact&gt;\n&lt;fact&gt;Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club&lt;/fact&gt;\n&lt;fact&gt;Member of Stern Technology Association and Management Consulting Association&lt;/fact&gt;\n&lt;fact&gt;Teaching Fellow for Digital Strategy and Programming in Python&lt;/fact&gt;\n&lt;fact&gt;Bachelor of Arts in Business and Economics from SOUTHWESTERN UNIVERSITY&lt;/fact&gt;\n&lt;fact&gt;Dean's List recipient&lt;/fact&gt;\n&lt;fact&gt;Skills include Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management&lt;/fact&gt;\n&lt;fact&gt;Certifications in OpenAI API Bootcamp from Udemy and Intermediate Python for Data Science from DataCamp&lt;/fact&gt;\n&lt;fact&gt;Volunteering experience as a mentor for 15+ students across different organizations since 2014&lt;/fact&gt;\n&lt;fact&gt;Interests include competitive bowling with ten 300 games, music (singing, piano, guitar), and coffee roasting&lt;/fact&gt;", "extraction_time": 2.883745, "extraction_model": "gpt-3.5-turbo", "fact_number": 11}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-02-24T00:09:27.919802</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>New York, NY 
+2016 - 2018 
+2014-2016 
+• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
+analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
+• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
+opportunities for clients 
+• Developed and presented quantitative business cases, influencing key decision-making processes for clients 
+EDUCATION 
+NEW YORK UNIVERSITY, Leonard N. Stern School of Business 
+Master of Business Administration 
+Specializations in Strategy, Business Analytics, and Management 
+New York, NY 
+May 2020 
+• Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club 
+• Member - Stern Technology Association; Management Consulting Association 
+• Teaching Fellow - Digital Strategy; Programming in Python 
+SOUTHWESTERN UNIVERSITY 
+Bachelor of Arts in Business and Economics 
+Georgetown, TX 
+ May 2013 
+• Dean’s List 
+ADDITIONAL INFORMATION 
+• Skills: Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, 
+Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management 
+• Certifications: OpenAI API Bootcamp - Udemy; Intermediate Python for Data Science – DataCamp 
+• Volunteering: Mentor for 15+ middle school, high school, and first-generation college students over 5 different 
+organizations since 2014, providing educational, professional, and personal guidance 
+• Interests: Competitive bowler with ten 300 games, avid musician (singing, piano, and guitar), and coffee roaster</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Volunteering experience as a mentor for 15+ students across different organizations since 2014</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>The submitted fact accurately reflects the volunteering experience mentioned in the original text. The statement specifically mentions mentoring 15+ students across different organizations since 2014, which is a quantifiable and verifiable data point directly extracted from the original text.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>llama-3.3-70b-versatile</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>2.883745</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 1729, "timestamp": "2025-02-24T00:09:25.024404"}, "llm_response": "&lt;fact&gt;Consulted for 10+ clients over 4+ years, finding $100M+ in operational improvement opportunities&lt;/fact&gt;\n&lt;fact&gt;Developed and presented quantitative business cases, influencing key decision-making processes for clients&lt;/fact&gt;\n&lt;fact&gt;Master of Business Administration from NEW YORK UNIVERSITY, Leonard N. Stern School of Business&lt;/fact&gt;\n&lt;fact&gt;Specializations in Strategy, Business Analytics, and Management&lt;/fact&gt;\n&lt;fact&gt;Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club&lt;/fact&gt;\n&lt;fact&gt;Member of Stern Technology Association and Management Consulting Association&lt;/fact&gt;\n&lt;fact&gt;Teaching Fellow for Digital Strategy and Programming in Python&lt;/fact&gt;\n&lt;fact&gt;Bachelor of Arts in Business and Economics from SOUTHWESTERN UNIVERSITY&lt;/fact&gt;\n&lt;fact&gt;Dean's List recipient&lt;/fact&gt;\n&lt;fact&gt;Skills include Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management&lt;/fact&gt;\n&lt;fact&gt;Certifications in OpenAI API Bootcamp from Udemy and Intermediate Python for Data Science from DataCamp&lt;/fact&gt;\n&lt;fact&gt;Volunteering experience as a mentor for 15+ students across different organizations since 2014&lt;/fact&gt;\n&lt;fact&gt;Interests include competitive bowling with ten 300 games, music (singing, piano, guitar), and coffee roasting&lt;/fact&gt;", "extraction_time": 2.883745, "extraction_model": "gpt-3.5-turbo", "fact_number": 12}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-02-24T00:09:27.919816</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>file:///Users/nicho/Documents/Nicholas_Pate_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>New York, NY 
+2016 - 2018 
+2014-2016 
+• Consulted for 10+ clients over 4+ years, interacting with client personnel, managing Associates, and providing heavy 
+analytical skills to solve client problems, ultimately finding $100M+ in operational improvement opportunities 
+• Led data-driven projects using SQL analytics, uncovering significant supply chain and profit improvement 
+opportunities for clients 
+• Developed and presented quantitative business cases, influencing key decision-making processes for clients 
+EDUCATION 
+NEW YORK UNIVERSITY, Leonard N. Stern School of Business 
+Master of Business Administration 
+Specializations in Strategy, Business Analytics, and Management 
+New York, NY 
+May 2020 
+• Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club 
+• Member - Stern Technology Association; Management Consulting Association 
+• Teaching Fellow - Digital Strategy; Programming in Python 
+SOUTHWESTERN UNIVERSITY 
+Bachelor of Arts in Business and Economics 
+Georgetown, TX 
+ May 2013 
+• Dean’s List 
+ADDITIONAL INFORMATION 
+• Skills: Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, 
+Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management 
+• Certifications: OpenAI API Bootcamp - Udemy; Intermediate Python for Data Science – DataCamp 
+• Volunteering: Mentor for 15+ middle school, high school, and first-generation college students over 5 different 
+organizations since 2014, providing educational, professional, and personal guidance 
+• Interests: Competitive bowler with ten 300 games, avid musician (singing, piano, and guitar), and coffee roaster</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Interests include competitive bowling with ten 300 games, music (singing, piano, guitar), and coffee roasting</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>verified</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>The submitted fact accurately reflects the information provided in the original text without any added inference or missing details. It specifically mentions the individual's interests as competitive bowling with ten 300 games, music involving singing, piano, and guitar, as well as coffee roasting. These details are directly verifiable from the original text.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>llama-3.3-70b-versatile</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>2.883745</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>{"chunk_metadata": {"char_length": 1729, "timestamp": "2025-02-24T00:09:25.024404"}, "llm_response": "&lt;fact&gt;Consulted for 10+ clients over 4+ years, finding $100M+ in operational improvement opportunities&lt;/fact&gt;\n&lt;fact&gt;Developed and presented quantitative business cases, influencing key decision-making processes for clients&lt;/fact&gt;\n&lt;fact&gt;Master of Business Administration from NEW YORK UNIVERSITY, Leonard N. Stern School of Business&lt;/fact&gt;\n&lt;fact&gt;Specializations in Strategy, Business Analytics, and Management&lt;/fact&gt;\n&lt;fact&gt;Leadership Positions - Associate WP of Academics, Business Analytics Club; VP of Events, Business Analytics Club&lt;/fact&gt;\n&lt;fact&gt;Member of Stern Technology Association and Management Consulting Association&lt;/fact&gt;\n&lt;fact&gt;Teaching Fellow for Digital Strategy and Programming in Python&lt;/fact&gt;\n&lt;fact&gt;Bachelor of Arts in Business and Economics from SOUTHWESTERN UNIVERSITY&lt;/fact&gt;\n&lt;fact&gt;Dean's List recipient&lt;/fact&gt;\n&lt;fact&gt;Skills include Python, SQL, Generative AI, APIs, Business Analytics, Data Analysis, Qualitative Research, Strategy, Consulting, Market Research, Stakeholder Interviews, Leadership, Team Management, Project Management&lt;/fact&gt;\n&lt;fact&gt;Certifications in OpenAI API Bootcamp from Udemy and Intermediate Python for Data Science from DataCamp&lt;/fact&gt;\n&lt;fact&gt;Volunteering experience as a mentor for 15+ students across different organizations since 2014&lt;/fact&gt;\n&lt;fact&gt;Interests include competitive bowling with ten 300 games, music (singing, piano, guitar), and coffee roasting&lt;/fact&gt;", "extraction_time": 2.883745, "extraction_model": "gpt-3.5-turbo", "fact_number": 13}</t>
         </is>
       </c>
     </row>
